--- a/prisma/rsvp.xlsx
+++ b/prisma/rsvp.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -424,193 +424,193 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>cmlzh4kkx0009p62j97s9h3ke</v>
+        <v>cmm248q8o000bp62j3lrvx68f</v>
       </c>
       <c r="B2" t="str">
-        <v>Эраносяны- Лерник,Инга, Сюзанна, Ангелина</v>
+        <v xml:space="preserve">Подсевалова Марина Николаевна </v>
       </c>
       <c r="C2" t="str">
-        <v>+79182911712</v>
+        <v>+79253719034</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E2" t="str">
         <v>Приду</v>
       </c>
       <c r="F2" t="str">
-        <v>2026-02-23T17:52:02.097Z</v>
+        <v>2026-02-25T14:14:39.576Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>cmlzh0z570008p62j0kvi2bpd</v>
+        <v>cmm248m96000ap62jug9v39hb</v>
       </c>
       <c r="B3" t="str">
-        <v>Кочоян  Виталий Викторович , Таня , Каролина, Эдуард.</v>
+        <v>Климентьевы</v>
       </c>
       <c r="C3" t="str">
-        <v>+79180894444</v>
+        <v>+79262546783</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E3" t="str">
         <v>Приду</v>
       </c>
       <c r="F3" t="str">
-        <v>2026-02-23T17:49:14.347Z</v>
+        <v>2026-02-25T14:14:34.410Z</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>cmlzgdrl50007p62jaf9dpbqi</v>
+        <v>cmlzh4kkx0009p62j97s9h3ke</v>
       </c>
       <c r="B4" t="str">
-        <v xml:space="preserve">Чнаваян Айк Матевосович , Чнаваян Давид Айкович </v>
+        <v>Эраносяны- Лерник,Инга, Сюзанна, Ангелина</v>
       </c>
       <c r="C4" t="str">
-        <v>+79164001049</v>
+        <v>+79182911712</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E4" t="str">
         <v>Приду</v>
       </c>
       <c r="F4" t="str">
-        <v>2026-02-23T17:31:11.465Z</v>
+        <v>2026-02-23T17:52:02.097Z</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>cmly7ev6s0006p62jj9b6irqo</v>
+        <v>cmlzh0z570008p62j0kvi2bpd</v>
       </c>
       <c r="B5" t="str">
-        <v xml:space="preserve">Гулахсзян Рафик Леваевич </v>
+        <v>Кочоян  Виталий Викторович , Таня , Каролина, Эдуард.</v>
       </c>
       <c r="C5" t="str">
-        <v>+79180915542</v>
+        <v>+79180894444</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E5" t="str">
         <v>Приду</v>
       </c>
       <c r="F5" t="str">
-        <v>2026-02-22T20:32:20.068Z</v>
+        <v>2026-02-23T17:49:14.347Z</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>cmly4lvjh0005p62jwthv9r9z</v>
+        <v>cmlzgdrl50007p62jaf9dpbqi</v>
       </c>
       <c r="B6" t="str">
-        <v>Караханян Степан</v>
+        <v xml:space="preserve">Чнаваян Айк Матевосович , Чнаваян Давид Айкович </v>
       </c>
       <c r="C6" t="str">
-        <v>+79093591174</v>
+        <v>+79164001049</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" t="str">
         <v>Приду</v>
       </c>
       <c r="F6" t="str">
-        <v>2026-02-22T19:13:48.269Z</v>
+        <v>2026-02-23T17:31:11.465Z</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>cmle3vgoc0004p62j9llt25mj</v>
+        <v>cmly7ev6s0006p62jj9b6irqo</v>
       </c>
       <c r="B7" t="str">
-        <v>Рощина Елизавета Сергеевна</v>
+        <v xml:space="preserve">Гулахсзян Рафик Леваевич </v>
       </c>
       <c r="C7" t="str">
-        <v>+79051085463</v>
+        <v>+79180915542</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E7" t="str">
         <v>Приду</v>
       </c>
       <c r="F7" t="str">
-        <v>2026-02-08T18:57:52.429Z</v>
+        <v>2026-02-22T20:32:20.068Z</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>cmlb5p9yl0003p62je09ju58j</v>
+        <v>cmly4lvjh0005p62jwthv9r9z</v>
       </c>
       <c r="B8" t="str">
-        <v>Чечелян  Генади  Симонович</v>
+        <v>Караханян Степан</v>
       </c>
       <c r="C8" t="str">
-        <v>+79167193020</v>
+        <v>+79093591174</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E8" t="str">
         <v>Приду</v>
       </c>
       <c r="F8" t="str">
-        <v>2026-02-06T17:25:44.494Z</v>
+        <v>2026-02-22T19:13:48.269Z</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>cml1zvjxo0002p62juut2wqby</v>
+        <v>cmle3vgoc0004p62j9llt25mj</v>
       </c>
       <c r="B9" t="str">
-        <v>Дыровы</v>
+        <v>Рощина Елизавета Сергеевна</v>
       </c>
       <c r="C9" t="str">
-        <v>+79060469004</v>
+        <v>+79051085463</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" t="str">
         <v>Приду</v>
       </c>
       <c r="F9" t="str">
-        <v>2026-01-31T07:32:44.076Z</v>
+        <v>2026-02-08T18:57:52.429Z</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>cml1wi1060001p62jwh24xsz4</v>
+        <v>cmlb5p9yl0003p62je09ju58j</v>
       </c>
       <c r="B10" t="str">
-        <v>Славик и Мариночка</v>
+        <v>Чечелян  Генади  Симонович</v>
       </c>
       <c r="C10" t="str">
-        <v>+79265211439</v>
+        <v>+79167193020</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E10" t="str">
         <v>Приду</v>
       </c>
       <c r="F10" t="str">
-        <v>2026-01-31T05:58:14.166Z</v>
+        <v>2026-02-06T17:25:44.494Z</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>cml17chrc0000p62j7v59yxkw</v>
+        <v>cml1zvjxo0002p62juut2wqby</v>
       </c>
       <c r="B11" t="str">
-        <v>Манукян Лидия Завеновна , Манукян Валерий Каренович</v>
+        <v>Дыровы</v>
       </c>
       <c r="C11" t="str">
-        <v>+79636498125</v>
+        <v>+79060469004</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -619,12 +619,52 @@
         <v>Приду</v>
       </c>
       <c r="F11" t="str">
+        <v>2026-01-31T07:32:44.076Z</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>cml1wi1060001p62jwh24xsz4</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Славик и Мариночка</v>
+      </c>
+      <c r="C12" t="str">
+        <v>+79265211439</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Приду</v>
+      </c>
+      <c r="F12" t="str">
+        <v>2026-01-31T05:58:14.166Z</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>cml17chrc0000p62j7v59yxkw</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Манукян Лидия Завеновна , Манукян Валерий Каренович</v>
+      </c>
+      <c r="C13" t="str">
+        <v>+79636498125</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Приду</v>
+      </c>
+      <c r="F13" t="str">
         <v>2026-01-30T18:14:05.544Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F13"/>
   </ignoredErrors>
 </worksheet>
 </file>